--- a/table_1_2026_01_09.xlsx
+++ b/table_1_2026_01_09.xlsx
@@ -248,10 +248,9 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">C_ID4 with extra poly T insertions (C_ID4</t>
     </r>
@@ -259,20 +258,18 @@
       <rPr>
         <vertAlign val="superscript"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">PolyT_Ins</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)</t>
     </r>
@@ -305,10 +302,9 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">C_ID5 with extra poly T insertions (C_ID5</t>
     </r>
@@ -316,20 +312,18 @@
       <rPr>
         <vertAlign val="superscript"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">PolyT_Ins</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)</t>
     </r>
@@ -362,10 +356,9 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">C_ID7 with extra poly T deletions (C_ID7</t>
     </r>
@@ -373,20 +366,18 @@
       <rPr>
         <vertAlign val="superscript"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">PolyT_Del</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)</t>
     </r>
@@ -443,10 +434,9 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">0.529</t>
     </r>
@@ -454,10 +444,9 @@
       <rPr>
         <vertAlign val="superscript"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">b</t>
     </r>
@@ -580,10 +569,9 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">C_ID19 with extra poly T insertions (C_ID19</t>
     </r>
@@ -591,20 +579,18 @@
       <rPr>
         <vertAlign val="superscript"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">PolyT_Ins</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)</t>
     </r>
@@ -820,10 +806,9 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ID_J with extra poly T deletions (ID_J</t>
     </r>
@@ -831,20 +816,18 @@
       <rPr>
         <vertAlign val="superscript"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">PolyT_Del</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)</t>
     </r>
@@ -919,10 +902,9 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ID_M with extra poly T deletions (ID_M</t>
     </r>
@@ -930,20 +912,18 @@
       <rPr>
         <vertAlign val="superscript"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">PolyT_De</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">l)</t>
     </r>
@@ -964,10 +944,9 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ID_N with extra poly T deletions (ID_N</t>
     </r>
@@ -975,20 +954,18 @@
       <rPr>
         <vertAlign val="superscript"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">PolyT_Ins</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)</t>
     </r>
@@ -1018,10 +995,9 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ID_P with extra poly T insertions (ID_P</t>
     </r>
@@ -1029,20 +1005,18 @@
       <rPr>
         <vertAlign val="superscript"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">PolyT_Ins</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)</t>
     </r>
@@ -1063,7 +1037,7 @@
     <t xml:space="preserve">InD16b</t>
   </si>
   <si>
-    <t xml:space="preserve">correspond to a signature mixed of C_ID1 and C_ID2</t>
+    <t xml:space="preserve">(see per_sig_text/)</t>
   </si>
   <si>
     <t xml:space="preserve">none</t>
@@ -1082,20 +1056,18 @@
       <rPr>
         <vertAlign val="superscript"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">a </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">The signatures in Koh et al. that were not detected in the current study consist of:</t>
     </r>
@@ -1117,20 +1089,18 @@
       <rPr>
         <vertAlign val="superscript"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">b</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> The key difference stems from the reduced 1-bp T insertions in 5+ T homopolymers within the COSMIC signatures.</t>
     </r>
@@ -1179,7 +1149,6 @@
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1201,7 +1170,6 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -1209,7 +1177,6 @@
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
-      <charset val="134"/>
     </font>
     <font>
       <b val="true"/>
@@ -1217,22 +1184,19 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <vertAlign val="superscript"/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1322,7 +1286,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1395,7 +1359,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1415,7 +1383,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1548,16 +1516,16 @@
         <a:srgbClr val="954f72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204" pitchFamily="0" charset="1"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="0" charset="1"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme>
@@ -1565,67 +1533,25 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
-        </a:gradFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
-        </a:gradFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:miter/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:miter/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:miter/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
@@ -1644,35 +1570,11 @@
           <a:schemeClr val="phClr"/>
         </a:solidFill>
         <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-          </a:schemeClr>
+          <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
-        </a:gradFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
@@ -1691,7 +1593,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A21" activeCellId="0" sqref="A21"/>
-      <selection pane="bottomRight" activeCell="F51" activeCellId="0" sqref="F51"/>
+      <selection pane="bottomRight" activeCell="C50" activeCellId="0" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.50390625" defaultRowHeight="13.5" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1712,7 +1614,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="2" width="8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="2" width="7.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="2" width="10.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="3" width="9.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="3" width="31.1"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="22" min="22" style="4" width="8.5"/>
   </cols>
   <sheetData>
@@ -2280,7 +2182,7 @@
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
       <c r="D13" s="13"/>
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="18" t="s">
         <v>74</v>
       </c>
       <c r="F13" s="12"/>
@@ -2374,7 +2276,7 @@
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
       <c r="D15" s="13"/>
-      <c r="E15" s="13" t="s">
+      <c r="E15" s="18" t="s">
         <v>83</v>
       </c>
       <c r="F15" s="12"/>
@@ -2474,7 +2376,7 @@
       <c r="D17" s="13" t="n">
         <v>0.952</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="E17" s="18" t="s">
         <v>92</v>
       </c>
       <c r="F17" s="12" t="s">
@@ -2618,7 +2520,7 @@
       <c r="Q19" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="R19" s="18" t="s">
+      <c r="R19" s="12" t="s">
         <v>29</v>
       </c>
       <c r="S19" s="12" t="s">
@@ -2641,7 +2543,7 @@
       <c r="F20" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="G20" s="12" t="s">
+      <c r="G20" s="19" t="s">
         <v>109</v>
       </c>
       <c r="H20" s="12"/>
@@ -2668,7 +2570,7 @@
       <c r="Q20" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="R20" s="18" t="s">
+      <c r="R20" s="12" t="s">
         <v>29</v>
       </c>
       <c r="S20" s="12" t="s">
@@ -2881,7 +2783,7 @@
       <c r="Q24" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="R24" s="18" t="s">
+      <c r="R24" s="12" t="s">
         <v>29</v>
       </c>
       <c r="S24" s="12" t="s">
@@ -3083,7 +2985,7 @@
       <c r="P28" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="Q28" s="18" t="s">
+      <c r="Q28" s="12" t="s">
         <v>62</v>
       </c>
       <c r="R28" s="12" t="s">
@@ -3107,7 +3009,7 @@
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
       <c r="D29" s="13"/>
-      <c r="E29" s="13" t="s">
+      <c r="E29" s="18" t="s">
         <v>148</v>
       </c>
       <c r="F29" s="12" t="s">
@@ -3138,7 +3040,7 @@
       <c r="Q29" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="R29" s="18" t="s">
+      <c r="R29" s="12" t="s">
         <v>151</v>
       </c>
       <c r="S29" s="12" t="s">
@@ -3178,7 +3080,7 @@
       </c>
       <c r="P30" s="12"/>
       <c r="Q30" s="12"/>
-      <c r="R30" s="18"/>
+      <c r="R30" s="12"/>
       <c r="S30" s="12"/>
       <c r="T30" s="13" t="s">
         <v>31</v>
@@ -3216,7 +3118,7 @@
       </c>
       <c r="P31" s="12"/>
       <c r="Q31" s="12"/>
-      <c r="R31" s="18"/>
+      <c r="R31" s="12"/>
       <c r="S31" s="12"/>
       <c r="T31" s="13" t="s">
         <v>31</v>
@@ -3310,10 +3212,10 @@
       <c r="P33" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="Q33" s="18" t="s">
+      <c r="Q33" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="R33" s="18" t="s">
+      <c r="R33" s="12" t="s">
         <v>29</v>
       </c>
       <c r="S33" s="12" t="s">
@@ -3360,8 +3262,8 @@
         <v>0.938</v>
       </c>
       <c r="P34" s="12"/>
-      <c r="Q34" s="18"/>
-      <c r="R34" s="18"/>
+      <c r="Q34" s="12"/>
+      <c r="R34" s="12"/>
       <c r="S34" s="12"/>
       <c r="T34" s="13" t="s">
         <v>31</v>
@@ -3454,7 +3356,7 @@
       <c r="P36" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="Q36" s="18" t="s">
+      <c r="Q36" s="12" t="s">
         <v>28</v>
       </c>
       <c r="R36" s="12" t="s">
@@ -3504,10 +3406,10 @@
       <c r="P37" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="Q37" s="18" t="s">
+      <c r="Q37" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="R37" s="18" t="s">
+      <c r="R37" s="12" t="s">
         <v>29</v>
       </c>
       <c r="S37" s="12" t="s">
@@ -3554,10 +3456,10 @@
       <c r="P38" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="Q38" s="18" t="s">
+      <c r="Q38" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="R38" s="18" t="s">
+      <c r="R38" s="12" t="s">
         <v>151</v>
       </c>
       <c r="S38" s="12" t="s">
@@ -3606,7 +3508,7 @@
       <c r="P39" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="Q39" s="18" t="s">
+      <c r="Q39" s="12" t="s">
         <v>186</v>
       </c>
       <c r="R39" s="12" t="s">
@@ -3664,10 +3566,10 @@
       <c r="P40" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="Q40" s="18" t="s">
+      <c r="Q40" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="R40" s="18" t="s">
+      <c r="R40" s="12" t="s">
         <v>29</v>
       </c>
       <c r="S40" s="12" t="s">
@@ -3735,7 +3637,7 @@
       <c r="W41" s="1"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="19" t="s">
+      <c r="A42" s="20" t="s">
         <v>211</v>
       </c>
       <c r="B42" s="12" t="s">
@@ -3774,7 +3676,7 @@
       <c r="Q42" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="R42" s="18" t="s">
+      <c r="R42" s="12" t="s">
         <v>29</v>
       </c>
       <c r="S42" s="12" t="s">
@@ -3794,10 +3696,10 @@
       </c>
       <c r="C43" s="12"/>
       <c r="D43" s="13"/>
-      <c r="E43" s="13" t="s">
+      <c r="E43" s="18" t="s">
         <v>218</v>
       </c>
-      <c r="F43" s="20" t="s">
+      <c r="F43" s="21" t="s">
         <v>219</v>
       </c>
       <c r="G43" s="12"/>
@@ -3822,10 +3724,10 @@
       <c r="P43" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="Q43" s="18" t="s">
+      <c r="Q43" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="R43" s="18" t="s">
+      <c r="R43" s="12" t="s">
         <v>29</v>
       </c>
       <c r="S43" s="12" t="s">
@@ -3878,7 +3780,7 @@
       <c r="P44" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="Q44" s="18" t="s">
+      <c r="Q44" s="12" t="s">
         <v>62</v>
       </c>
       <c r="R44" s="12" t="s">
@@ -3928,7 +3830,7 @@
         <v>0.853</v>
       </c>
       <c r="P45" s="12"/>
-      <c r="Q45" s="18"/>
+      <c r="Q45" s="12"/>
       <c r="R45" s="12"/>
       <c r="S45" s="12"/>
       <c r="T45" s="13" t="s">
@@ -3980,10 +3882,10 @@
       <c r="P46" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="Q46" s="18" t="s">
+      <c r="Q46" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="R46" s="18" t="s">
+      <c r="R46" s="12" t="s">
         <v>29</v>
       </c>
       <c r="S46" s="12" t="s">
@@ -4003,7 +3905,7 @@
       </c>
       <c r="C47" s="12"/>
       <c r="D47" s="13"/>
-      <c r="E47" s="13" t="s">
+      <c r="E47" s="18" t="s">
         <v>241</v>
       </c>
       <c r="F47" s="12" t="s">
@@ -4046,7 +3948,7 @@
       <c r="V47" s="11"/>
     </row>
     <row r="48" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="19" t="s">
+      <c r="A48" s="20" t="s">
         <v>245</v>
       </c>
       <c r="B48" s="12" t="s">
@@ -4054,7 +3956,7 @@
       </c>
       <c r="C48" s="12"/>
       <c r="D48" s="13"/>
-      <c r="E48" s="13" t="s">
+      <c r="E48" s="18" t="s">
         <v>246</v>
       </c>
       <c r="F48" s="12" t="s">
@@ -4082,7 +3984,7 @@
       <c r="P48" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="Q48" s="18" t="s">
+      <c r="Q48" s="12" t="s">
         <v>28</v>
       </c>
       <c r="R48" s="12" t="s">
@@ -4114,7 +4016,7 @@
       <c r="D49" s="13" t="n">
         <v>0.898</v>
       </c>
-      <c r="E49" s="13" t="s">
+      <c r="E49" s="18" t="s">
         <v>254</v>
       </c>
       <c r="F49" s="12" t="s">
@@ -4139,7 +4041,7 @@
       <c r="O49" s="13" t="n">
         <v>0.969</v>
       </c>
-      <c r="P49" s="18" t="s">
+      <c r="P49" s="12" t="s">
         <v>27</v>
       </c>
       <c r="Q49" s="12" t="s">
@@ -4162,17 +4064,17 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="21" t="s">
+      <c r="A50" s="22" t="s">
         <v>258</v>
       </c>
-      <c r="B50" s="21"/>
-      <c r="C50" s="22" t="s">
+      <c r="B50" s="22"/>
+      <c r="C50" s="23" t="s">
         <v>259</v>
       </c>
-      <c r="D50" s="22" t="n">
+      <c r="D50" s="23" t="n">
         <v>0.908</v>
       </c>
-      <c r="E50" s="22" t="s">
+      <c r="E50" s="23" t="s">
         <v>260</v>
       </c>
       <c r="F50" s="12" t="s">
@@ -4211,27 +4113,27 @@
       <c r="W50" s="1"/>
     </row>
     <row r="52" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="23" t="s">
+      <c r="A52" s="24" t="s">
         <v>265</v>
       </c>
-      <c r="B52" s="24"/>
-      <c r="C52" s="24"/>
-      <c r="D52" s="24"/>
-      <c r="E52" s="24"/>
-      <c r="G52" s="24"/>
-      <c r="H52" s="24"/>
-      <c r="I52" s="24"/>
+      <c r="B52" s="25"/>
+      <c r="C52" s="25"/>
+      <c r="D52" s="25"/>
+      <c r="E52" s="25"/>
+      <c r="G52" s="25"/>
+      <c r="H52" s="25"/>
+      <c r="I52" s="25"/>
       <c r="J52" s="14"/>
       <c r="K52" s="14"/>
       <c r="L52" s="14"/>
       <c r="M52" s="14"/>
       <c r="N52" s="14"/>
       <c r="O52" s="14"/>
-      <c r="P52" s="24"/>
-      <c r="Q52" s="24"/>
-      <c r="R52" s="24"/>
-      <c r="S52" s="24"/>
-      <c r="T52" s="25"/>
+      <c r="P52" s="25"/>
+      <c r="Q52" s="25"/>
+      <c r="R52" s="25"/>
+      <c r="S52" s="25"/>
+      <c r="T52" s="26"/>
     </row>
     <row r="53" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="11" t="s">
@@ -4266,51 +4168,51 @@
       <c r="S54" s="11"/>
     </row>
     <row r="55" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="26" t="s">
+      <c r="A55" s="27" t="s">
         <v>268</v>
       </c>
-      <c r="B55" s="26"/>
-      <c r="C55" s="26"/>
-      <c r="D55" s="26"/>
-      <c r="E55" s="26"/>
-      <c r="G55" s="26"/>
-      <c r="H55" s="26"/>
-      <c r="I55" s="26"/>
-      <c r="J55" s="27"/>
-      <c r="K55" s="27"/>
-      <c r="L55" s="27"/>
-      <c r="M55" s="27"/>
-      <c r="N55" s="27"/>
-      <c r="O55" s="27"/>
-      <c r="P55" s="26"/>
-      <c r="Q55" s="26"/>
-      <c r="R55" s="26"/>
-      <c r="S55" s="26"/>
+      <c r="B55" s="27"/>
+      <c r="C55" s="27"/>
+      <c r="D55" s="27"/>
+      <c r="E55" s="27"/>
+      <c r="G55" s="27"/>
+      <c r="H55" s="27"/>
+      <c r="I55" s="27"/>
+      <c r="J55" s="28"/>
+      <c r="K55" s="28"/>
+      <c r="L55" s="28"/>
+      <c r="M55" s="28"/>
+      <c r="N55" s="28"/>
+      <c r="O55" s="28"/>
+      <c r="P55" s="27"/>
+      <c r="Q55" s="27"/>
+      <c r="R55" s="27"/>
+      <c r="S55" s="27"/>
     </row>
     <row r="56" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="26" t="s">
+      <c r="A56" s="27" t="s">
         <v>269</v>
       </c>
-      <c r="B56" s="26"/>
-      <c r="C56" s="26"/>
-      <c r="D56" s="26"/>
-      <c r="E56" s="26"/>
-      <c r="G56" s="26"/>
-      <c r="H56" s="26"/>
-      <c r="I56" s="26"/>
-      <c r="J56" s="27"/>
-      <c r="K56" s="27"/>
-      <c r="L56" s="27"/>
-      <c r="M56" s="27"/>
-      <c r="N56" s="27"/>
-      <c r="O56" s="27"/>
-      <c r="P56" s="26"/>
-      <c r="Q56" s="26"/>
-      <c r="R56" s="26"/>
-      <c r="S56" s="26"/>
+      <c r="B56" s="27"/>
+      <c r="C56" s="27"/>
+      <c r="D56" s="27"/>
+      <c r="E56" s="27"/>
+      <c r="G56" s="27"/>
+      <c r="H56" s="27"/>
+      <c r="I56" s="27"/>
+      <c r="J56" s="28"/>
+      <c r="K56" s="28"/>
+      <c r="L56" s="28"/>
+      <c r="M56" s="28"/>
+      <c r="N56" s="28"/>
+      <c r="O56" s="28"/>
+      <c r="P56" s="27"/>
+      <c r="Q56" s="27"/>
+      <c r="R56" s="27"/>
+      <c r="S56" s="27"/>
     </row>
     <row r="57" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="23" t="s">
+      <c r="A57" s="24" t="s">
         <v>270</v>
       </c>
       <c r="B57" s="11"/>
@@ -4390,18 +4292,8 @@
     <mergeCell ref="R44:R45"/>
     <mergeCell ref="S44:S45"/>
   </mergeCells>
-  <conditionalFormatting sqref="K3:O49">
+  <conditionalFormatting sqref="K3:O49 K50:O50">
     <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K50:O50">
-    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="max" val="0"/>
